--- a/Assets/Resources/DataTables/TypeCharts.xlsx
+++ b/Assets/Resources/DataTables/TypeCharts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\game\unity\PokemonEvolution\Assets\Resources\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980BEA1B-F5F1-414D-AE4D-3BDCAF17E64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DA972-BDC4-44CC-BAFE-BCAFEC461E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41980" yWindow="1960" windowWidth="38380" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="37260" windowHeight="20860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,41 +25,67 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>格斗</t>
+  </si>
+  <si>
+    <t>飞行</t>
+  </si>
+  <si>
+    <t>毒</t>
+  </si>
+  <si>
+    <t>地面</t>
+  </si>
+  <si>
+    <t>岩石</t>
+  </si>
+  <si>
+    <t>虫</t>
+  </si>
+  <si>
+    <t>幽灵</t>
+  </si>
+  <si>
+    <t>钢</t>
+  </si>
+  <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>草</t>
+  </si>
+  <si>
+    <t>电</t>
+  </si>
+  <si>
+    <t>超能</t>
+  </si>
+  <si>
+    <t>冰</t>
+  </si>
+  <si>
+    <t>龙</t>
+  </si>
+  <si>
+    <t>恶</t>
+  </si>
+  <si>
+    <t>妖精</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +100,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -83,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,15 +132,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{12FA8254-90F0-4101-BBB4-13B4123C3F2A}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -377,68 +440,1131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="265" zoomScaleNormal="265" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>1</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>2</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
+      </c>
+      <c r="S7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4">
-        <v>3</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
+        <v>2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
+      </c>
+      <c r="S10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
+      </c>
+      <c r="S11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
+      </c>
+      <c r="S12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="G13" s="1">
+        <v>2</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R14" s="1">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
+      </c>
+      <c r="S16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>2</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1">
+        <v>2</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="17.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
